--- a/Data/empdata.xlsx
+++ b/Data/empdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U35035\eclipse-workspace\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345F2EDA-73C7-42D7-9F2A-070BB78E3968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A925ACDA-DB5F-44C7-8052-11E95E8CB4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W1" sqref="D1:W1048576"/>
+      <selection activeCell="V1" sqref="D1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/empdata.xlsx
+++ b/Data/empdata.xlsx
@@ -10,14 +10,15 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A925ACDA-DB5F-44C7-8052-11E95E8CB4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empdata" sheetId="1" r:id="rId1"/>
     <sheet name="empid" sheetId="2" r:id="rId2"/>
     <sheet name="fakename" sheetId="3" r:id="rId3"/>
+    <sheet name="AmericanStates" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>jacob</t>
   </si>
@@ -69,6 +70,30 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>New york</t>
+  </si>
+  <si>
+    <t>california</t>
+  </si>
+  <si>
+    <t>florida</t>
+  </si>
+  <si>
+    <t>maryland</t>
+  </si>
+  <si>
+    <t>new-york</t>
   </si>
 </sst>
 </file>
@@ -392,9 +417,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -416,7 +441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -427,7 +452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -438,7 +463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -463,24 +488,24 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>19</v>
       </c>
@@ -495,16 +520,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB38B10-9C53-4AC3-8502-B11E1FABEF0F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="V1" sqref="D1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="3" max="3" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -515,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -526,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -541,4 +566,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>